--- a/biology/Zoologie/Hypolimnas_alimena/Hypolimnas_alimena.xlsx
+++ b/biology/Zoologie/Hypolimnas_alimena/Hypolimnas_alimena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypolimnas alimena est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Hypolimnas.
 </t>
@@ -511,13 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hypolimnas alimena a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio alimena[1]
-Synonymie
-Papilio alimena Linné, 1758 Protonyme
-Noms vernaculaires
-Hypolimnas alimena se nomme en anglais Blue-banded Eggfly[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hypolimnas alimena a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio alimena
 </t>
         </is>
       </c>
@@ -543,17 +553,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio alimena Linné, 1758 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypolimnas alimena se nomme en anglais Blue-banded Eggfly.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des sous-espèces
 Hypolimnas alimena alimena
 Hypolimnas alimena afra Fruhstorfer ;
 Hypolimnas alimena bandana Fruhstorfer ;
 Hypolimnas alimena bateia Fruhstorfer ;
-Hypolimnas alimena catalai Viette, 1950; en Nouvelle-Calédonie[3].
+Hypolimnas alimena catalai Viette, 1950; en Nouvelle-Calédonie.
 Hypolimnas alimena curicta Fruhstorfer,1912 ;
 Hypolimnas alimena darwinensis Waterhouse et Lyell, 1914 ;  ; en Australie dans les Territoires du Nord.
 Hypolimnas alimena diffusa Howarth ;
@@ -577,70 +662,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hypolimnas_alimena</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon aux ailes antérieures au bord concave. Les mâles présentent un dessus noir avec une large bande bleue doublant une bande submarginale noire marquée d'une ligne de points blancs et un revers marron[2]. 
-Les femelles sont marron marquées de blanc.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hypolimnas_alimena</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Asystasia gangetica, Graptophilum pictum et Pseuderanthemum variabile[4]..
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -662,16 +683,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Indonésie, Nouvelle-Guinée, aux Moluques, en Australie et en Nouvelle-Calédonie[4],[2]. 
-Biotope
-Il réside dans la forêt humide[5].
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon aux ailes antérieures au bord concave. Les mâles présentent un dessus noir avec une large bande bleue doublant une bande submarginale noire marquée d'une ligne de points blancs et un revers marron. 
+Les femelles sont marron marquées de blanc.
 </t>
         </is>
       </c>
@@ -697,12 +717,158 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Asystasia gangetica, Graptophilum pictum et Pseuderanthemum variabile..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Indonésie, Nouvelle-Guinée, aux Moluques, en Australie et en Nouvelle-Calédonie,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_alimena</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poste australienne a émis en 2004 un timbre à son effigie d'une valeur de 10c[2]. 
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poste australienne a émis en 2004 un timbre à son effigie d'une valeur de 10c. 
 </t>
         </is>
       </c>
